--- a/Code/Results/Cases/Case_6_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.41277401770623</v>
+        <v>19.72951314293001</v>
       </c>
       <c r="C2">
-        <v>14.2166669507053</v>
+        <v>11.92627835132564</v>
       </c>
       <c r="D2">
-        <v>4.318222597928564</v>
+        <v>4.242877618224962</v>
       </c>
       <c r="E2">
-        <v>6.739170550506151</v>
+        <v>7.41253359964161</v>
       </c>
       <c r="F2">
-        <v>31.99318103737248</v>
+        <v>20.74970064137496</v>
       </c>
       <c r="G2">
-        <v>2.085839627778844</v>
+        <v>2.077213291759485</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.154090341514826</v>
+        <v>6.144930917026739</v>
       </c>
       <c r="M2">
-        <v>13.55884934976474</v>
+        <v>11.82739694902106</v>
       </c>
       <c r="N2">
-        <v>13.12440090565238</v>
+        <v>12.18138524958077</v>
       </c>
       <c r="O2">
-        <v>25.14279539583557</v>
+        <v>16.46537352868579</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.90617638962165</v>
+        <v>18.38835636535589</v>
       </c>
       <c r="C3">
-        <v>13.32547006902756</v>
+        <v>11.48243754768152</v>
       </c>
       <c r="D3">
-        <v>4.414052199166981</v>
+        <v>4.154946508115895</v>
       </c>
       <c r="E3">
-        <v>6.753933145936078</v>
+        <v>7.509448812111735</v>
       </c>
       <c r="F3">
-        <v>30.73058295762183</v>
+        <v>20.11556808726458</v>
       </c>
       <c r="G3">
-        <v>2.095550456047112</v>
+        <v>2.082814247969409</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.077484565031706</v>
+        <v>6.061480361085623</v>
       </c>
       <c r="M3">
-        <v>12.96256702926688</v>
+        <v>11.29221828141735</v>
       </c>
       <c r="N3">
-        <v>13.38875457197687</v>
+        <v>12.36878547897493</v>
       </c>
       <c r="O3">
-        <v>24.35633462378004</v>
+        <v>16.19389360065004</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.94283915321633</v>
+        <v>17.5163067375013</v>
       </c>
       <c r="C4">
-        <v>12.75157669553528</v>
+        <v>11.20058297670824</v>
       </c>
       <c r="D4">
-        <v>4.473450362295858</v>
+        <v>4.099713827861827</v>
       </c>
       <c r="E4">
-        <v>6.763843485363373</v>
+        <v>7.571378638612495</v>
       </c>
       <c r="F4">
-        <v>29.96473248779987</v>
+        <v>19.736600575462</v>
       </c>
       <c r="G4">
-        <v>2.101661227146177</v>
+        <v>2.086362363610866</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.033380293650734</v>
+        <v>6.012512681746662</v>
       </c>
       <c r="M4">
-        <v>12.59182986282798</v>
+        <v>10.95486821260923</v>
       </c>
       <c r="N4">
-        <v>13.55408729658065</v>
+        <v>12.48703985887499</v>
       </c>
       <c r="O4">
-        <v>23.88835646491609</v>
+        <v>16.04105269648151</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.54080575325469</v>
+        <v>17.14865027554978</v>
       </c>
       <c r="C5">
-        <v>12.51097215284615</v>
+        <v>11.08348192526049</v>
       </c>
       <c r="D5">
-        <v>4.497820850674239</v>
+        <v>4.076911278774894</v>
       </c>
       <c r="E5">
-        <v>6.768088311909068</v>
+        <v>7.59722486226238</v>
       </c>
       <c r="F5">
-        <v>29.65530065093143</v>
+        <v>19.58496165267401</v>
       </c>
       <c r="G5">
-        <v>2.104190724716351</v>
+        <v>2.087836334637396</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.016137375355502</v>
+        <v>5.993138114734667</v>
       </c>
       <c r="M5">
-        <v>12.43977609928016</v>
+        <v>10.81538043561338</v>
       </c>
       <c r="N5">
-        <v>13.62225582946819</v>
+        <v>12.5360418387065</v>
       </c>
       <c r="O5">
-        <v>23.70149096364857</v>
+        <v>15.98221872746261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.47348281898265</v>
+        <v>17.08685680172267</v>
       </c>
       <c r="C6">
-        <v>12.47061260164301</v>
+        <v>11.06390522569666</v>
       </c>
       <c r="D6">
-        <v>4.501878226158842</v>
+        <v>4.073107663881999</v>
       </c>
       <c r="E6">
-        <v>6.768805445817192</v>
+        <v>7.601553413261687</v>
       </c>
       <c r="F6">
-        <v>29.60408963627225</v>
+        <v>19.55995606391831</v>
       </c>
       <c r="G6">
-        <v>2.104613176486113</v>
+        <v>2.088082801132314</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.013318061313412</v>
+        <v>5.989956263931269</v>
       </c>
       <c r="M6">
-        <v>12.41447476632951</v>
+        <v>10.79210283155592</v>
       </c>
       <c r="N6">
-        <v>13.63362412797102</v>
+        <v>12.54422794699844</v>
       </c>
       <c r="O6">
-        <v>23.67069664768907</v>
+        <v>15.97265657118547</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.93745525175717</v>
+        <v>17.5113982506485</v>
       </c>
       <c r="C7">
-        <v>12.74835912177881</v>
+        <v>11.19901264519223</v>
       </c>
       <c r="D7">
-        <v>4.473778330527899</v>
+        <v>4.099407474227656</v>
       </c>
       <c r="E7">
-        <v>6.763899905356917</v>
+        <v>7.571724742562933</v>
       </c>
       <c r="F7">
-        <v>29.96054819973737</v>
+        <v>19.73454397266305</v>
       </c>
       <c r="G7">
-        <v>2.101695179102352</v>
+        <v>2.086382127544867</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.03314480428361</v>
+        <v>6.012249029423039</v>
       </c>
       <c r="M7">
-        <v>12.58978289522926</v>
+        <v>10.95299492586415</v>
       </c>
       <c r="N7">
-        <v>13.55500338038496</v>
+        <v>12.48769741381268</v>
       </c>
       <c r="O7">
-        <v>23.88582066506585</v>
+        <v>16.04024532413886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.90131861090646</v>
+        <v>19.27711824419945</v>
       </c>
       <c r="C8">
-        <v>13.91490133398348</v>
+        <v>11.77523773594153</v>
       </c>
       <c r="D8">
-        <v>4.351164270590258</v>
+        <v>4.212827185588578</v>
       </c>
       <c r="E8">
-        <v>6.744080972049976</v>
+        <v>7.4454468134352</v>
       </c>
       <c r="F8">
-        <v>31.55605480036686</v>
+        <v>20.52900284993063</v>
       </c>
       <c r="G8">
-        <v>2.089158408277904</v>
+        <v>2.079122257160502</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.127063839764858</v>
+        <v>6.115691483254241</v>
       </c>
       <c r="M8">
-        <v>13.35431189419524</v>
+        <v>11.6447857916087</v>
       </c>
       <c r="N8">
-        <v>13.21494506397329</v>
+        <v>12.24534492487972</v>
       </c>
       <c r="O8">
-        <v>24.86858063653884</v>
+        <v>16.3688769999792</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.64126152166111</v>
+        <v>22.35773392262599</v>
       </c>
       <c r="C9">
-        <v>15.99283993824324</v>
+        <v>12.82725856853693</v>
       </c>
       <c r="D9">
-        <v>4.113926395791498</v>
+        <v>4.424658476858662</v>
       </c>
       <c r="E9">
-        <v>6.712263502290453</v>
+        <v>7.217065856927227</v>
       </c>
       <c r="F9">
-        <v>34.74862089396293</v>
+        <v>22.16163595910748</v>
       </c>
       <c r="G9">
-        <v>2.065650850184472</v>
+        <v>2.065720351218638</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.334831311131375</v>
+        <v>6.336127990131422</v>
       </c>
       <c r="M9">
-        <v>14.81030886353843</v>
+        <v>12.92517579159174</v>
       </c>
       <c r="N9">
-        <v>12.57039488007732</v>
+        <v>11.79494372872083</v>
       </c>
       <c r="O9">
-        <v>26.91075900094991</v>
+        <v>17.12411247968111</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.20730541987886</v>
+        <v>24.39312910008002</v>
       </c>
       <c r="C10">
-        <v>17.39602982882425</v>
+        <v>13.54835759978998</v>
       </c>
       <c r="D10">
-        <v>3.939712160640689</v>
+        <v>4.572945068035867</v>
       </c>
       <c r="E10">
-        <v>6.693727401283671</v>
+        <v>7.061068797596571</v>
       </c>
       <c r="F10">
-        <v>37.12294356626315</v>
+        <v>23.39696324251728</v>
       </c>
       <c r="G10">
-        <v>2.048883579186579</v>
+        <v>2.056336965192981</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.502358113816824</v>
+        <v>6.508192317910553</v>
       </c>
       <c r="M10">
-        <v>15.99666670490265</v>
+        <v>14.03765338511448</v>
       </c>
       <c r="N10">
-        <v>12.10807724692392</v>
+        <v>11.47856180380179</v>
       </c>
       <c r="O10">
-        <v>28.47844458352101</v>
+        <v>17.74715620662054</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.32655597383471</v>
+        <v>25.27069273807064</v>
       </c>
       <c r="C11">
-        <v>18.0088683384059</v>
+        <v>13.86448089808025</v>
       </c>
       <c r="D11">
-        <v>3.860009713318826</v>
+        <v>4.638642439333786</v>
       </c>
       <c r="E11">
-        <v>6.686494153884981</v>
+        <v>6.992688971785905</v>
       </c>
       <c r="F11">
-        <v>38.20854255356388</v>
+        <v>23.96495998215229</v>
       </c>
       <c r="G11">
-        <v>2.041326692330127</v>
+        <v>2.052157920579885</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.581931342688526</v>
+        <v>6.588531388289311</v>
       </c>
       <c r="M11">
-        <v>16.60479477871388</v>
+        <v>14.52384056647115</v>
       </c>
       <c r="N11">
-        <v>11.89966972574534</v>
+        <v>11.33766176380947</v>
       </c>
       <c r="O11">
-        <v>29.20628231846323</v>
+        <v>18.04539814724864</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.74371296571349</v>
+        <v>25.59614333066136</v>
       </c>
       <c r="C12">
-        <v>18.23740130392533</v>
+        <v>13.98243389668175</v>
       </c>
       <c r="D12">
-        <v>3.829720226960685</v>
+        <v>4.663254873981439</v>
       </c>
       <c r="E12">
-        <v>6.683942526090256</v>
+        <v>6.967170453685928</v>
       </c>
       <c r="F12">
-        <v>38.62045528884765</v>
+        <v>24.18079162260795</v>
       </c>
       <c r="G12">
-        <v>2.03847164395797</v>
+        <v>2.050587340969797</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.612560433894159</v>
+        <v>6.6192398440934</v>
       </c>
       <c r="M12">
-        <v>16.83134048060996</v>
+        <v>14.70429827356802</v>
       </c>
       <c r="N12">
-        <v>11.82098189416249</v>
+        <v>11.28473268714083</v>
       </c>
       <c r="O12">
-        <v>29.48406424669977</v>
+        <v>18.16045886068656</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.654163767252</v>
+        <v>25.52635554025148</v>
       </c>
       <c r="C13">
-        <v>18.18833763015813</v>
+        <v>13.95710930008067</v>
       </c>
       <c r="D13">
-        <v>3.836249140761439</v>
+        <v>4.65796615617374</v>
       </c>
       <c r="E13">
-        <v>6.684483461475424</v>
+        <v>6.972649553349831</v>
       </c>
       <c r="F13">
-        <v>38.53170470583051</v>
+        <v>24.13427709510027</v>
       </c>
       <c r="G13">
-        <v>2.039086298451554</v>
+        <v>2.050925078243882</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.60594159935146</v>
+        <v>6.612613690082799</v>
       </c>
       <c r="M13">
-        <v>16.78271369116954</v>
+        <v>14.66559513866904</v>
       </c>
       <c r="N13">
-        <v>11.83791909370939</v>
+        <v>11.29611305165726</v>
       </c>
       <c r="O13">
-        <v>29.42414123184262</v>
+        <v>18.13558417972933</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.36100814814855</v>
+        <v>25.29760479352193</v>
       </c>
       <c r="C14">
-        <v>18.02773993599599</v>
+        <v>13.87422037132401</v>
       </c>
       <c r="D14">
-        <v>3.857520203534234</v>
+        <v>4.640672714146415</v>
       </c>
       <c r="E14">
-        <v>6.686280378107204</v>
+        <v>6.990581997968532</v>
       </c>
       <c r="F14">
-        <v>38.242413971953</v>
+        <v>23.98270231416518</v>
       </c>
       <c r="G14">
-        <v>2.041091695862821</v>
+        <v>2.052028474475511</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.58444118440342</v>
+        <v>6.591052125879139</v>
       </c>
       <c r="M14">
-        <v>16.62350690241822</v>
+        <v>14.5387598442121</v>
       </c>
       <c r="N14">
-        <v>11.89319162933699</v>
+        <v>11.33329874795642</v>
       </c>
       <c r="O14">
-        <v>29.22909171808473</v>
+        <v>18.05482175819769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.1805794801918</v>
+        <v>25.15659718597431</v>
       </c>
       <c r="C15">
-        <v>17.92891291505057</v>
+        <v>13.82321869221693</v>
       </c>
       <c r="D15">
-        <v>3.87053394086528</v>
+        <v>4.63004501458595</v>
       </c>
       <c r="E15">
-        <v>6.687405941509182</v>
+        <v>7.001615162583021</v>
       </c>
       <c r="F15">
-        <v>38.06532407661892</v>
+        <v>23.889951896037</v>
       </c>
       <c r="G15">
-        <v>2.042320803483356</v>
+        <v>2.052705861762653</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.571336634152829</v>
+        <v>6.577881940549797</v>
       </c>
       <c r="M15">
-        <v>16.52550566323877</v>
+        <v>14.46059543170464</v>
       </c>
       <c r="N15">
-        <v>11.92707656682618</v>
+        <v>11.35613140652514</v>
       </c>
       <c r="O15">
-        <v>29.10990272095163</v>
+        <v>18.00562868511518</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.13321184086541</v>
+        <v>24.33481287361656</v>
       </c>
       <c r="C16">
-        <v>17.35547718251198</v>
+        <v>13.52745461996591</v>
       </c>
       <c r="D16">
-        <v>3.944908243418277</v>
+        <v>4.568615075845053</v>
       </c>
       <c r="E16">
-        <v>6.69422546681864</v>
+        <v>7.065589884925481</v>
       </c>
       <c r="F16">
-        <v>37.05210846353521</v>
+        <v>23.35995367767206</v>
       </c>
       <c r="G16">
-        <v>2.049378564323833</v>
+        <v>2.056611798029678</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.497226534320223</v>
+        <v>6.502982564000676</v>
       </c>
       <c r="M16">
-        <v>15.95639277882193</v>
+        <v>14.00536665256635</v>
       </c>
       <c r="N16">
-        <v>12.12173186176838</v>
+        <v>11.48783008517641</v>
       </c>
       <c r="O16">
-        <v>28.43117769351306</v>
+        <v>17.7279629007437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.47853250770644</v>
+        <v>23.8183538280168</v>
       </c>
       <c r="C17">
-        <v>16.99725196764437</v>
+        <v>13.34292876745398</v>
       </c>
       <c r="D17">
-        <v>3.990389609103575</v>
+        <v>4.530469823995211</v>
       </c>
       <c r="E17">
-        <v>6.6987260476079</v>
+        <v>7.105500578894346</v>
       </c>
       <c r="F17">
-        <v>36.43193826875123</v>
+        <v>23.03626814826455</v>
       </c>
       <c r="G17">
-        <v>2.053723943320584</v>
+        <v>2.059030241162754</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.452632247284143</v>
+        <v>6.457555157141426</v>
       </c>
       <c r="M17">
-        <v>15.60044358743783</v>
+        <v>13.719549780246</v>
       </c>
       <c r="N17">
-        <v>12.24160403287808</v>
+        <v>11.5693913674865</v>
       </c>
       <c r="O17">
-        <v>28.01858678325085</v>
+        <v>17.56141362868609</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.09743936586731</v>
+        <v>23.5167440259278</v>
       </c>
       <c r="C18">
-        <v>16.78880317185219</v>
+        <v>13.23567547648786</v>
       </c>
       <c r="D18">
-        <v>4.016509610241408</v>
+        <v>4.508364817431969</v>
       </c>
       <c r="E18">
-        <v>6.701426476203348</v>
+        <v>7.128699088470499</v>
       </c>
       <c r="F18">
-        <v>36.0757445976596</v>
+        <v>22.85066749305248</v>
       </c>
       <c r="G18">
-        <v>2.056230174978991</v>
+        <v>2.060429750050566</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.427298572897415</v>
+        <v>6.431621636734286</v>
       </c>
       <c r="M18">
-        <v>15.39387118114064</v>
+        <v>13.55273553483189</v>
       </c>
       <c r="N18">
-        <v>12.31073299682365</v>
+        <v>11.61658829986639</v>
       </c>
       <c r="O18">
-        <v>27.78265208791786</v>
+        <v>17.46701406567807</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.96762166358787</v>
+        <v>23.41383894653086</v>
       </c>
       <c r="C19">
-        <v>16.71780898214398</v>
+        <v>13.19917067336019</v>
       </c>
       <c r="D19">
-        <v>4.02534781797892</v>
+        <v>4.500852534600795</v>
       </c>
       <c r="E19">
-        <v>6.702359579747526</v>
+        <v>7.136595327395627</v>
       </c>
       <c r="F19">
-        <v>35.95523193052583</v>
+        <v>22.78792917194078</v>
       </c>
       <c r="G19">
-        <v>2.057080026808312</v>
+        <v>2.060905084419272</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.418774920824384</v>
+        <v>6.422874860360503</v>
       </c>
       <c r="M19">
-        <v>15.34132075726406</v>
+        <v>13.49583825468885</v>
       </c>
       <c r="N19">
-        <v>12.33417136107786</v>
+        <v>11.63261758684692</v>
       </c>
       <c r="O19">
-        <v>27.70300427701839</v>
+        <v>17.43529183570227</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.54869242133604</v>
+        <v>23.87380269461515</v>
       </c>
       <c r="C20">
-        <v>17.03563391642936</v>
+        <v>13.36268800856144</v>
       </c>
       <c r="D20">
-        <v>3.98555244391761</v>
+        <v>4.534547610554009</v>
       </c>
       <c r="E20">
-        <v>6.698235279612801</v>
+        <v>7.101226849780392</v>
       </c>
       <c r="F20">
-        <v>36.49790353226314</v>
+        <v>23.07066652184874</v>
       </c>
       <c r="G20">
-        <v>2.053260682388751</v>
+        <v>2.058771922245556</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.457346620591585</v>
+        <v>6.46237087189609</v>
       </c>
       <c r="M20">
-        <v>15.63859794032338</v>
+        <v>13.7502256368505</v>
       </c>
       <c r="N20">
-        <v>12.22882493981221</v>
+        <v>11.56067959064056</v>
       </c>
       <c r="O20">
-        <v>28.06236508068893</v>
+        <v>17.57899874118477</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.44729432250735</v>
+        <v>25.36497998884471</v>
       </c>
       <c r="C21">
-        <v>18.07500620553298</v>
+        <v>13.89861481695798</v>
       </c>
       <c r="D21">
-        <v>3.851275669754615</v>
+        <v>4.645759525613431</v>
       </c>
       <c r="E21">
-        <v>6.685747360523283</v>
+        <v>6.985304579335376</v>
       </c>
       <c r="F21">
-        <v>38.32736278267238</v>
+        <v>24.02720420497944</v>
       </c>
       <c r="G21">
-        <v>2.040502514002536</v>
+        <v>2.051704064162524</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.590742789177027</v>
+        <v>6.59737761009523</v>
       </c>
       <c r="M21">
-        <v>16.67037007027922</v>
+        <v>14.57611317302961</v>
       </c>
       <c r="N21">
-        <v>11.87695079478484</v>
+        <v>11.32236488665393</v>
       </c>
       <c r="O21">
-        <v>29.28632303925855</v>
+        <v>18.07848608394528</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.64934113771471</v>
+        <v>26.29958719837996</v>
       </c>
       <c r="C22">
-        <v>18.73376191293159</v>
+        <v>14.23862492437331</v>
       </c>
       <c r="D22">
-        <v>3.762865875353659</v>
+        <v>4.716888899491208</v>
       </c>
       <c r="E22">
-        <v>6.678687244314804</v>
+        <v>6.911733542495983</v>
       </c>
       <c r="F22">
-        <v>39.5278732676029</v>
+        <v>24.65664953661556</v>
       </c>
       <c r="G22">
-        <v>2.032200698826679</v>
+        <v>2.047153887460368</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.680826627602651</v>
+        <v>6.68727349099196</v>
       </c>
       <c r="M22">
-        <v>17.32297439399934</v>
+        <v>15.09462084164959</v>
       </c>
       <c r="N22">
-        <v>11.64831138511819</v>
+        <v>11.16909660117942</v>
       </c>
       <c r="O22">
-        <v>30.09893545801479</v>
+        <v>18.41730111663182</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.01125146510363</v>
+        <v>25.80439621150509</v>
       </c>
       <c r="C23">
-        <v>18.38400269303938</v>
+        <v>14.05810486054742</v>
       </c>
       <c r="D23">
-        <v>3.810126904503905</v>
+        <v>4.679071945517943</v>
       </c>
       <c r="E23">
-        <v>6.682348928039565</v>
+        <v>6.95079778472926</v>
       </c>
       <c r="F23">
-        <v>38.88666293672031</v>
+        <v>24.32034531339323</v>
       </c>
       <c r="G23">
-        <v>2.036629497949699</v>
+        <v>2.049576408655753</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.632476706793879</v>
+        <v>6.639145899986552</v>
       </c>
       <c r="M23">
-        <v>16.9766035629381</v>
+        <v>14.81981372650832</v>
       </c>
       <c r="N23">
-        <v>11.77023255946769</v>
+        <v>11.25067389124347</v>
       </c>
       <c r="O23">
-        <v>29.66403707624772</v>
+        <v>18.23533962215783</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.51698780982025</v>
+        <v>23.84874887891883</v>
       </c>
       <c r="C24">
-        <v>17.01828923484162</v>
+        <v>13.3537584869334</v>
       </c>
       <c r="D24">
-        <v>3.987739409830535</v>
+        <v>4.532704586708757</v>
       </c>
       <c r="E24">
-        <v>6.698456805001856</v>
+        <v>7.103158213956666</v>
       </c>
       <c r="F24">
-        <v>36.46807954611958</v>
+        <v>23.05511347968629</v>
       </c>
       <c r="G24">
-        <v>2.053470097425392</v>
+        <v>2.058888679770869</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.455214305893787</v>
+        <v>6.460193115444017</v>
       </c>
       <c r="M24">
-        <v>15.62135660012971</v>
+        <v>13.73636485445774</v>
       </c>
       <c r="N24">
-        <v>12.2346017016003</v>
+        <v>11.56461723038106</v>
       </c>
       <c r="O24">
-        <v>28.04256896211253</v>
+        <v>17.57104430056987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.65230858520036</v>
+        <v>21.56473692930052</v>
       </c>
       <c r="C25">
-        <v>15.45276517016733</v>
+        <v>12.55149468438378</v>
       </c>
       <c r="D25">
-        <v>4.177944775328613</v>
+        <v>4.368582052505434</v>
       </c>
       <c r="E25">
-        <v>6.720065314450055</v>
+        <v>7.27678426957951</v>
       </c>
       <c r="F25">
-        <v>33.87939378704251</v>
+        <v>21.71301491836272</v>
       </c>
       <c r="G25">
-        <v>2.071909851695132</v>
+        <v>2.069261135015634</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.276049976440816</v>
+        <v>6.274673004414836</v>
       </c>
       <c r="M25">
-        <v>14.42184961903552</v>
+        <v>12.58780430760316</v>
       </c>
       <c r="N25">
-        <v>12.74261508341736</v>
+        <v>11.91419441141433</v>
       </c>
       <c r="O25">
-        <v>26.34636833487851</v>
+        <v>16.90784389062983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.72951314293001</v>
+        <v>18.18492175088006</v>
       </c>
       <c r="C2">
-        <v>11.92627835132564</v>
+        <v>12.97180907858897</v>
       </c>
       <c r="D2">
-        <v>4.242877618224962</v>
+        <v>4.707296565537436</v>
       </c>
       <c r="E2">
-        <v>7.41253359964161</v>
+        <v>7.939886990570548</v>
       </c>
       <c r="F2">
-        <v>20.74970064137496</v>
+        <v>17.00611176423304</v>
       </c>
       <c r="G2">
-        <v>2.077213291759485</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>20.92104465307483</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.795409550775478</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.243457923220637</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.16975567958439</v>
       </c>
       <c r="L2">
-        <v>6.144930917026739</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.82739694902106</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.18138524958077</v>
+        <v>6.14589449698467</v>
       </c>
       <c r="O2">
-        <v>16.46537352868579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.25137859411389</v>
+      </c>
+      <c r="P2">
+        <v>12.40569355063959</v>
+      </c>
+      <c r="Q2">
+        <v>13.40110873669922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.38835636535589</v>
+        <v>16.989076382907</v>
       </c>
       <c r="C3">
-        <v>11.48243754768152</v>
+        <v>12.53367510104763</v>
       </c>
       <c r="D3">
-        <v>4.154946508115895</v>
+        <v>4.513094751344876</v>
       </c>
       <c r="E3">
-        <v>7.509448812111735</v>
+        <v>8.028004446491773</v>
       </c>
       <c r="F3">
-        <v>20.11556808726458</v>
+        <v>16.546234533686</v>
       </c>
       <c r="G3">
-        <v>2.082814247969409</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.28105143867884</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.643525900988274</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.237692219403698</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.27740530651018</v>
       </c>
       <c r="L3">
-        <v>6.061480361085623</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.29221828141735</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.36878547897493</v>
+        <v>6.060365843105972</v>
       </c>
       <c r="O3">
-        <v>16.19389360065004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.73013675170895</v>
+      </c>
+      <c r="P3">
+        <v>12.47903892476065</v>
+      </c>
+      <c r="Q3">
+        <v>13.25891785022814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.5163067375013</v>
+        <v>16.20783073890541</v>
       </c>
       <c r="C4">
-        <v>11.20058297670824</v>
+        <v>12.2577270012089</v>
       </c>
       <c r="D4">
-        <v>4.099713827861827</v>
+        <v>4.389273665773782</v>
       </c>
       <c r="E4">
-        <v>7.571378638612495</v>
+        <v>8.084272217592879</v>
       </c>
       <c r="F4">
-        <v>19.736600575462</v>
+        <v>16.26779674089068</v>
       </c>
       <c r="G4">
-        <v>2.086362363610866</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>19.89241442476212</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.547413536581873</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.23792628624583</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.34949814900441</v>
       </c>
       <c r="L4">
-        <v>6.012512681746662</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.95486821260923</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.48703985887499</v>
+        <v>6.010524910204963</v>
       </c>
       <c r="O4">
-        <v>16.04105269648151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.39841907534534</v>
+      </c>
+      <c r="P4">
+        <v>12.52723677247179</v>
+      </c>
+      <c r="Q4">
+        <v>13.17859740866241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.14865027554978</v>
+        <v>15.87312654491784</v>
       </c>
       <c r="C5">
-        <v>11.08348192526049</v>
+        <v>12.14950852406205</v>
       </c>
       <c r="D5">
-        <v>4.076911278774894</v>
+        <v>4.338840358983095</v>
       </c>
       <c r="E5">
-        <v>7.59722486226238</v>
+        <v>8.107120939594804</v>
       </c>
       <c r="F5">
-        <v>19.58496165267401</v>
+        <v>16.14979364000996</v>
       </c>
       <c r="G5">
-        <v>2.087836334637396</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>19.72493571271684</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.508214649909525</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.237344783802151</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.37644366073176</v>
       </c>
       <c r="L5">
-        <v>5.993138114734667</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.81538043561338</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.5360418387065</v>
+        <v>5.991605228885438</v>
       </c>
       <c r="O5">
-        <v>15.98221872746261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.25941568363285</v>
+      </c>
+      <c r="P5">
+        <v>12.54846378604362</v>
+      </c>
+      <c r="Q5">
+        <v>13.14343224836561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.08685680172267</v>
+        <v>15.81135450204376</v>
       </c>
       <c r="C6">
-        <v>11.06390522569666</v>
+        <v>12.13865684530146</v>
       </c>
       <c r="D6">
-        <v>4.073107663881999</v>
+        <v>4.331795146830607</v>
       </c>
       <c r="E6">
-        <v>7.601553413261687</v>
+        <v>8.110185730917818</v>
       </c>
       <c r="F6">
-        <v>19.55995606391831</v>
+        <v>16.12332252510327</v>
       </c>
       <c r="G6">
-        <v>2.088082801132314</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>19.68446300123082</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.50272869394639</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.235342293590708</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.37624838023276</v>
       </c>
       <c r="L6">
-        <v>5.989956263931269</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.79210283155592</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.54422794699844</v>
+        <v>5.989368954692409</v>
       </c>
       <c r="O6">
-        <v>15.97265657118547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.23487506311811</v>
+      </c>
+      <c r="P6">
+        <v>12.55302647067289</v>
+      </c>
+      <c r="Q6">
+        <v>13.13258656342907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.5113982506485</v>
+        <v>16.1887658550348</v>
       </c>
       <c r="C7">
-        <v>11.19901264519223</v>
+        <v>12.27581805620698</v>
       </c>
       <c r="D7">
-        <v>4.099407474227656</v>
+        <v>4.392365680471032</v>
       </c>
       <c r="E7">
-        <v>7.571724742562933</v>
+        <v>8.082507582784777</v>
       </c>
       <c r="F7">
-        <v>19.73454397266305</v>
+        <v>16.24738042324747</v>
       </c>
       <c r="G7">
-        <v>2.086382127544867</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>19.85566659655559</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.54939113776007</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.232563662226553</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.33684752737732</v>
       </c>
       <c r="L7">
-        <v>6.012249029423039</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.95299492586415</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.48769741381268</v>
+        <v>6.012612914351203</v>
       </c>
       <c r="O7">
-        <v>16.04024532413886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.39305973607519</v>
+      </c>
+      <c r="P7">
+        <v>12.53029168922471</v>
+      </c>
+      <c r="Q7">
+        <v>13.16420196413112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.27711824419945</v>
+        <v>17.7644963819066</v>
       </c>
       <c r="C8">
-        <v>11.77523773594153</v>
+        <v>12.84734914501477</v>
       </c>
       <c r="D8">
-        <v>4.212827185588578</v>
+        <v>4.646094744555517</v>
       </c>
       <c r="E8">
-        <v>7.4454468134352</v>
+        <v>7.967124658849952</v>
       </c>
       <c r="F8">
-        <v>20.52900284993063</v>
+        <v>16.82271511115575</v>
       </c>
       <c r="G8">
-        <v>2.079122257160502</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.65562798867219</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.746281636754315</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.233622028030236</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.18831971196447</v>
       </c>
       <c r="L8">
-        <v>6.115691483254241</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.6447857916087</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.24534492487972</v>
+        <v>6.118902294961126</v>
       </c>
       <c r="O8">
-        <v>16.3688769999792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.06976365470935</v>
+      </c>
+      <c r="P8">
+        <v>12.43426775305227</v>
+      </c>
+      <c r="Q8">
+        <v>13.33246255958734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.35773392262599</v>
+        <v>20.50693601459043</v>
       </c>
       <c r="C9">
-        <v>12.82725856853693</v>
+        <v>13.87615132153483</v>
       </c>
       <c r="D9">
-        <v>4.424658476858662</v>
+        <v>5.099595019402559</v>
       </c>
       <c r="E9">
-        <v>7.217065856927227</v>
+        <v>7.761688824621121</v>
       </c>
       <c r="F9">
-        <v>22.16163595910748</v>
+        <v>18.00771105460988</v>
       </c>
       <c r="G9">
-        <v>2.065720351218638</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>22.3077499814522</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.107243448027414</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.276183350462926</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.97038100234546</v>
       </c>
       <c r="L9">
-        <v>6.336127990131422</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.92517579159174</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.79494372872083</v>
+        <v>6.343807780583656</v>
       </c>
       <c r="O9">
-        <v>17.12411247968111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.30378586162678</v>
+      </c>
+      <c r="P9">
+        <v>12.26634832167881</v>
+      </c>
+      <c r="Q9">
+        <v>13.74266771325698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.39312910008002</v>
+        <v>22.29295986031876</v>
       </c>
       <c r="C10">
-        <v>13.54835759978998</v>
+        <v>14.60147346173916</v>
       </c>
       <c r="D10">
-        <v>4.572945068035867</v>
+        <v>5.40998966329996</v>
       </c>
       <c r="E10">
-        <v>7.061068797596571</v>
+        <v>7.620339781595151</v>
       </c>
       <c r="F10">
-        <v>23.39696324251728</v>
+        <v>18.87642908750256</v>
       </c>
       <c r="G10">
-        <v>2.056336965192981</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>23.50943801694708</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.360898017051992</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.32507016827484</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.83759545826224</v>
       </c>
       <c r="L10">
-        <v>6.508192317910553</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.03765338511448</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.47856180380179</v>
+        <v>6.521723670614858</v>
       </c>
       <c r="O10">
-        <v>17.74715620662054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.2387449434545</v>
+      </c>
+      <c r="P10">
+        <v>12.16157534746453</v>
+      </c>
+      <c r="Q10">
+        <v>14.07166576093125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.27069273807064</v>
+        <v>23.04060333477461</v>
       </c>
       <c r="C11">
-        <v>13.86448089808025</v>
+        <v>14.94982096886303</v>
       </c>
       <c r="D11">
-        <v>4.638642439333786</v>
+        <v>5.550736865323643</v>
       </c>
       <c r="E11">
-        <v>6.992688971785905</v>
+        <v>7.55512122747364</v>
       </c>
       <c r="F11">
-        <v>23.96495998215229</v>
+        <v>19.24556993943342</v>
       </c>
       <c r="G11">
-        <v>2.052157920579885</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>24.0081958216193</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.477533287032732</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.343489864915814</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.76372237639752</v>
       </c>
       <c r="L11">
-        <v>6.588531388289311</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.52384056647115</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.33766176380947</v>
+        <v>6.60840804312735</v>
       </c>
       <c r="O11">
-        <v>18.04539814724864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.66652967398836</v>
+      </c>
+      <c r="P11">
+        <v>12.12379005100715</v>
+      </c>
+      <c r="Q11">
+        <v>14.20785065837751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.59614333066136</v>
+        <v>23.32640972220741</v>
       </c>
       <c r="C12">
-        <v>13.98243389668175</v>
+        <v>15.065374493511</v>
       </c>
       <c r="D12">
-        <v>4.663254873981439</v>
+        <v>5.600446492530674</v>
       </c>
       <c r="E12">
-        <v>6.967170453685928</v>
+        <v>7.532484362418054</v>
       </c>
       <c r="F12">
-        <v>24.18079162260795</v>
+        <v>19.39934335477584</v>
       </c>
       <c r="G12">
-        <v>2.050587340969797</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>24.22211388262037</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.519329384893648</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.355698861875243</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.7484549368751</v>
       </c>
       <c r="L12">
-        <v>6.6192398440934</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.70429827356802</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.28473268714083</v>
+        <v>6.639680404749805</v>
       </c>
       <c r="O12">
-        <v>18.16045886068656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.82757210889421</v>
+      </c>
+      <c r="P12">
+        <v>12.10701108290184</v>
+      </c>
+      <c r="Q12">
+        <v>14.27174073238975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.52635554025148</v>
+        <v>23.26701226867952</v>
       </c>
       <c r="C13">
-        <v>13.95710930008067</v>
+        <v>15.03758179591748</v>
       </c>
       <c r="D13">
-        <v>4.65796615617374</v>
+        <v>5.589229485813279</v>
       </c>
       <c r="E13">
-        <v>6.972649553349831</v>
+        <v>7.537690748037187</v>
       </c>
       <c r="F13">
-        <v>24.13427709510027</v>
+        <v>19.36901933607628</v>
       </c>
       <c r="G13">
-        <v>2.050925078243882</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>24.18106143525904</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.509884940115327</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.353947401962483</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.75399572430912</v>
       </c>
       <c r="L13">
-        <v>6.612613690082799</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.66559513866904</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.29611305165726</v>
+        <v>6.632561473301305</v>
       </c>
       <c r="O13">
-        <v>18.13558417972933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.7935523606901</v>
+      </c>
+      <c r="P13">
+        <v>12.10996792624344</v>
+      </c>
+      <c r="Q13">
+        <v>14.26017363355402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.29760479352193</v>
+        <v>23.06504681946312</v>
       </c>
       <c r="C14">
-        <v>13.87422037132401</v>
+        <v>14.95808866011289</v>
       </c>
       <c r="D14">
-        <v>4.640672714146415</v>
+        <v>5.55460901012371</v>
       </c>
       <c r="E14">
-        <v>6.990581997968532</v>
+        <v>7.55339914277323</v>
       </c>
       <c r="F14">
-        <v>23.98270231416518</v>
+        <v>19.25941434042362</v>
       </c>
       <c r="G14">
-        <v>2.052028474475511</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>24.02794013309037</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.480776904249666</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.344866997351822</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.76342143129579</v>
       </c>
       <c r="L14">
-        <v>6.591052125879139</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.5387598442121</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.33329874795642</v>
+        <v>6.610816808973914</v>
       </c>
       <c r="O14">
-        <v>18.05482175819769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.68006628298558</v>
+      </c>
+      <c r="P14">
+        <v>12.12213123999879</v>
+      </c>
+      <c r="Q14">
+        <v>14.2140402621076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.15659718597431</v>
+        <v>22.93674380994438</v>
       </c>
       <c r="C15">
-        <v>13.82321869221693</v>
+        <v>14.91511647037281</v>
       </c>
       <c r="D15">
-        <v>4.63004501458595</v>
+        <v>5.534386610649841</v>
       </c>
       <c r="E15">
-        <v>7.001615162583021</v>
+        <v>7.562383718666442</v>
       </c>
       <c r="F15">
-        <v>23.889951896037</v>
+        <v>19.18671149002407</v>
       </c>
       <c r="G15">
-        <v>2.052705861762653</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>23.92413272892692</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.463901661301672</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.337601275730542</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.76481741775713</v>
       </c>
       <c r="L15">
-        <v>6.577881940549797</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.46059543170464</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.35613140652514</v>
+        <v>6.598272151844582</v>
       </c>
       <c r="O15">
-        <v>18.00562868511518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.60908076178785</v>
+      </c>
+      <c r="P15">
+        <v>12.13088889590819</v>
+      </c>
+      <c r="Q15">
+        <v>14.18148181044517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.33481287361656</v>
+        <v>22.21117758226626</v>
       </c>
       <c r="C16">
-        <v>13.52745461996591</v>
+        <v>14.62881152979209</v>
       </c>
       <c r="D16">
-        <v>4.568615075845053</v>
+        <v>5.410000039434861</v>
       </c>
       <c r="E16">
-        <v>7.065589884925481</v>
+        <v>7.618893889145956</v>
       </c>
       <c r="F16">
-        <v>23.35995367767206</v>
+        <v>18.80486611469986</v>
       </c>
       <c r="G16">
-        <v>2.056611798029678</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>23.3914327722191</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.36058141956352</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.308786832887321</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.80433596884761</v>
       </c>
       <c r="L16">
-        <v>6.502982564000676</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.00536665256635</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.48783008517641</v>
+        <v>6.522351682858337</v>
       </c>
       <c r="O16">
-        <v>17.7279629007437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.20158668625517</v>
+      </c>
+      <c r="P16">
+        <v>12.17431068514536</v>
+      </c>
+      <c r="Q16">
+        <v>14.02519751979955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.8183538280168</v>
+        <v>21.7538426431705</v>
       </c>
       <c r="C17">
-        <v>13.34292876745398</v>
+        <v>14.45071472722188</v>
       </c>
       <c r="D17">
-        <v>4.530469823995211</v>
+        <v>5.332255957685619</v>
       </c>
       <c r="E17">
-        <v>7.105500578894346</v>
+        <v>7.65418005331544</v>
       </c>
       <c r="F17">
-        <v>23.03626814826455</v>
+        <v>18.57053334970601</v>
       </c>
       <c r="G17">
-        <v>2.059030241162754</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>23.06418995178211</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.296741203382215</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.292379862711684</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.83089716013589</v>
       </c>
       <c r="L17">
-        <v>6.457555157141426</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.719549780246</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.5693913674865</v>
+        <v>6.476338807629578</v>
       </c>
       <c r="O17">
-        <v>17.56141362868609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.94527861318277</v>
+      </c>
+      <c r="P17">
+        <v>12.20189751475923</v>
+      </c>
+      <c r="Q17">
+        <v>13.93131168969734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.5167440259278</v>
+        <v>21.49626556458388</v>
       </c>
       <c r="C18">
-        <v>13.23567547648786</v>
+        <v>14.33187723545649</v>
       </c>
       <c r="D18">
-        <v>4.508364817431969</v>
+        <v>5.284135127622647</v>
       </c>
       <c r="E18">
-        <v>7.128699088470499</v>
+        <v>7.6764410622166</v>
       </c>
       <c r="F18">
-        <v>22.85066749305248</v>
+        <v>18.45040791026682</v>
       </c>
       <c r="G18">
-        <v>2.060429750050566</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>22.90228143678</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.256727054240448</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.288015663205655</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.85854555523879</v>
       </c>
       <c r="L18">
-        <v>6.431621636734286</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.55273553483189</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.61658829986639</v>
+        <v>6.448168046412066</v>
       </c>
       <c r="O18">
-        <v>17.46701406567807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.79823921826043</v>
+      </c>
+      <c r="P18">
+        <v>12.21507497696538</v>
+      </c>
+      <c r="Q18">
+        <v>13.88958995054876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.41383894653086</v>
+        <v>21.40059882124094</v>
       </c>
       <c r="C19">
-        <v>13.19917067336019</v>
+        <v>14.30343569896208</v>
       </c>
       <c r="D19">
-        <v>4.500852534600795</v>
+        <v>5.269971800771321</v>
       </c>
       <c r="E19">
-        <v>7.136595327395627</v>
+        <v>7.682675051677519</v>
       </c>
       <c r="F19">
-        <v>22.78792917194078</v>
+        <v>18.398462124336</v>
       </c>
       <c r="G19">
-        <v>2.060905084419272</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>22.82710413156618</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.24547831828187</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.283059079359056</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.85913999437103</v>
       </c>
       <c r="L19">
-        <v>6.422874860360503</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.49583825468885</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.63261758684692</v>
+        <v>6.440144648955065</v>
       </c>
       <c r="O19">
-        <v>17.43529183570227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.7459684002641</v>
+      </c>
+      <c r="P19">
+        <v>12.22193556802195</v>
+      </c>
+      <c r="Q19">
+        <v>13.86669353916548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.87380269461515</v>
+        <v>21.80376671103383</v>
       </c>
       <c r="C20">
-        <v>13.36268800856144</v>
+        <v>14.46855615896541</v>
       </c>
       <c r="D20">
-        <v>4.534547610554009</v>
+        <v>5.340361856090367</v>
       </c>
       <c r="E20">
-        <v>7.101226849780392</v>
+        <v>7.650536693801942</v>
       </c>
       <c r="F20">
-        <v>23.07066652184874</v>
+        <v>18.596618920737</v>
       </c>
       <c r="G20">
-        <v>2.058771922245556</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>23.1010939012918</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.303305659635887</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.29444016802162</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.82888987882018</v>
       </c>
       <c r="L20">
-        <v>6.46237087189609</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.7502256368505</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.56067959064056</v>
+        <v>6.481065315791841</v>
       </c>
       <c r="O20">
-        <v>17.57899874118477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.97301414776972</v>
+      </c>
+      <c r="P20">
+        <v>12.19868527307834</v>
+      </c>
+      <c r="Q20">
+        <v>13.94213217751394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.36497998884471</v>
+        <v>23.11411606160335</v>
       </c>
       <c r="C21">
-        <v>13.89861481695798</v>
+        <v>14.99816526368321</v>
       </c>
       <c r="D21">
-        <v>4.645759525613431</v>
+        <v>5.567878995029991</v>
       </c>
       <c r="E21">
-        <v>6.985304579335376</v>
+        <v>7.546836760779605</v>
       </c>
       <c r="F21">
-        <v>24.02720420497944</v>
+        <v>19.27594633018143</v>
       </c>
       <c r="G21">
-        <v>2.051704064162524</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>24.04480095524938</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.492176131400981</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.342412524718078</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.7476761717855</v>
       </c>
       <c r="L21">
-        <v>6.59737761009523</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.57611317302961</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.32236488665393</v>
+        <v>6.619276680564165</v>
       </c>
       <c r="O21">
-        <v>18.07848608394528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.7106460333924</v>
+      </c>
+      <c r="P21">
+        <v>12.12207175037332</v>
+      </c>
+      <c r="Q21">
+        <v>14.2149808119799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.29958719837996</v>
+        <v>23.94396066107942</v>
       </c>
       <c r="C22">
-        <v>14.23862492437331</v>
+        <v>15.31491816870175</v>
       </c>
       <c r="D22">
-        <v>4.716888899491208</v>
+        <v>5.707911070022872</v>
       </c>
       <c r="E22">
-        <v>6.911733542495983</v>
+        <v>7.483569227903295</v>
       </c>
       <c r="F22">
-        <v>24.65664953661556</v>
+        <v>19.73904920313533</v>
       </c>
       <c r="G22">
-        <v>2.047153887460368</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>24.69513191654059</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.610407773327255</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.384483570246411</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.71891849975598</v>
       </c>
       <c r="L22">
-        <v>6.68727349099196</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.09462084164959</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.16909660117942</v>
+        <v>6.708729953734545</v>
       </c>
       <c r="O22">
-        <v>18.41730111663182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.17570633949391</v>
+      </c>
+      <c r="P22">
+        <v>12.0707089102191</v>
+      </c>
+      <c r="Q22">
+        <v>14.4157243209938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.80439621150509</v>
+        <v>23.51713988892148</v>
       </c>
       <c r="C23">
-        <v>14.05810486054742</v>
+        <v>15.12662969278837</v>
       </c>
       <c r="D23">
-        <v>4.679071945517943</v>
+        <v>5.629926732226125</v>
       </c>
       <c r="E23">
-        <v>6.95079778472926</v>
+        <v>7.519487652932326</v>
       </c>
       <c r="F23">
-        <v>24.32034531339323</v>
+        <v>19.51074611462738</v>
       </c>
       <c r="G23">
-        <v>2.049576408655753</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>24.38193152197524</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.544401738229087</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.367774895985351</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.74913484504872</v>
       </c>
       <c r="L23">
-        <v>6.639145899986552</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.81981372650832</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.25067389124347</v>
+        <v>6.658334924824367</v>
       </c>
       <c r="O23">
-        <v>18.23533962215783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.93278384367255</v>
+      </c>
+      <c r="P23">
+        <v>12.09354743387271</v>
+      </c>
+      <c r="Q23">
+        <v>14.32310261891759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.84874887891883</v>
+        <v>21.80208534550608</v>
       </c>
       <c r="C24">
-        <v>13.3537584869334</v>
+        <v>14.42790136289641</v>
       </c>
       <c r="D24">
-        <v>4.532704586708757</v>
+        <v>5.330648874155031</v>
       </c>
       <c r="E24">
-        <v>7.103158213956666</v>
+        <v>7.655868213959113</v>
       </c>
       <c r="F24">
-        <v>23.05511347968629</v>
+        <v>18.61559133635487</v>
       </c>
       <c r="G24">
-        <v>2.058888679770869</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>23.13986562402877</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.294676707135311</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.303256867764341</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.8542650243101</v>
       </c>
       <c r="L24">
-        <v>6.460193115444017</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.73636485445774</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.56461723038106</v>
+        <v>6.474890066225648</v>
       </c>
       <c r="O24">
-        <v>17.57104430056987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.96615737375399</v>
+      </c>
+      <c r="P24">
+        <v>12.19368089279205</v>
+      </c>
+      <c r="Q24">
+        <v>13.96157197648482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.56473692930052</v>
+        <v>19.78245551276379</v>
       </c>
       <c r="C25">
-        <v>12.55149468438378</v>
+        <v>13.63740865560384</v>
       </c>
       <c r="D25">
-        <v>4.368582052505434</v>
+        <v>4.987291142531274</v>
       </c>
       <c r="E25">
-        <v>7.27678426957951</v>
+        <v>7.811796814310079</v>
       </c>
       <c r="F25">
-        <v>21.71301491836272</v>
+        <v>17.65408632851256</v>
       </c>
       <c r="G25">
-        <v>2.069261135015634</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.8026668207745</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.016141469147049</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.251654275523347</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.99994462564617</v>
       </c>
       <c r="L25">
-        <v>6.274673004414836</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.58780430760316</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.91419441141433</v>
+        <v>6.284895876405057</v>
       </c>
       <c r="O25">
-        <v>16.90784389062983</v>
+        <v>11.97567669980675</v>
+      </c>
+      <c r="P25">
+        <v>12.31478180060537</v>
+      </c>
+      <c r="Q25">
+        <v>13.60145234530749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.18492175088006</v>
+        <v>17.99864131195471</v>
       </c>
       <c r="C2">
-        <v>12.97180907858897</v>
+        <v>13.04306251900828</v>
       </c>
       <c r="D2">
-        <v>4.707296565537436</v>
+        <v>4.76274892317817</v>
       </c>
       <c r="E2">
-        <v>7.939886990570548</v>
+        <v>7.807210689529061</v>
       </c>
       <c r="F2">
-        <v>17.00611176423304</v>
+        <v>16.71576793569528</v>
       </c>
       <c r="G2">
-        <v>20.92104465307483</v>
+        <v>19.7276846819487</v>
       </c>
       <c r="I2">
-        <v>2.795409550775478</v>
+        <v>2.823973001843512</v>
       </c>
       <c r="J2">
-        <v>8.243457923220637</v>
+        <v>8.751785036725815</v>
       </c>
       <c r="K2">
-        <v>13.16975567958439</v>
+        <v>12.87058758416693</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.43135861457345</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.628747602794844</v>
       </c>
       <c r="N2">
-        <v>6.14589449698467</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.25137859411389</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.40569355063959</v>
+        <v>6.203837724602604</v>
       </c>
       <c r="Q2">
-        <v>13.40110873669922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.19004669005911</v>
+      </c>
+      <c r="R2">
+        <v>12.42239584253137</v>
+      </c>
+      <c r="S2">
+        <v>13.17980805178886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.989076382907</v>
+        <v>16.8458730112188</v>
       </c>
       <c r="C3">
-        <v>12.53367510104763</v>
+        <v>12.51987754072663</v>
       </c>
       <c r="D3">
-        <v>4.513094751344876</v>
+        <v>4.552488674964753</v>
       </c>
       <c r="E3">
-        <v>8.028004446491773</v>
+        <v>7.895635048344553</v>
       </c>
       <c r="F3">
-        <v>16.546234533686</v>
+        <v>16.29474969804437</v>
       </c>
       <c r="G3">
-        <v>20.28105143867884</v>
+        <v>19.13994265766922</v>
       </c>
       <c r="I3">
-        <v>2.643525900988274</v>
+        <v>2.688189800726079</v>
       </c>
       <c r="J3">
-        <v>8.237692219403698</v>
+        <v>8.727567522788203</v>
       </c>
       <c r="K3">
-        <v>13.27740530651018</v>
+        <v>12.99310129145457</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.59747357580502</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.657690170667185</v>
       </c>
       <c r="N3">
-        <v>6.060365843105972</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.73013675170895</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.47903892476065</v>
+        <v>6.113981996671632</v>
       </c>
       <c r="Q3">
-        <v>13.25891785022814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.67320724049183</v>
+      </c>
+      <c r="R3">
+        <v>12.47223583561505</v>
+      </c>
+      <c r="S3">
+        <v>13.06283829555957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.20783073890541</v>
+        <v>16.09262844986898</v>
       </c>
       <c r="C4">
-        <v>12.2577270012089</v>
+        <v>12.18983462578088</v>
       </c>
       <c r="D4">
-        <v>4.389273665773782</v>
+        <v>4.418334802508032</v>
       </c>
       <c r="E4">
-        <v>8.084272217592879</v>
+        <v>7.951965077228571</v>
       </c>
       <c r="F4">
-        <v>16.26779674089068</v>
+        <v>16.03907863645781</v>
       </c>
       <c r="G4">
-        <v>19.89241442476212</v>
+        <v>18.78457086585149</v>
       </c>
       <c r="I4">
-        <v>2.547413536581873</v>
+        <v>2.602388404215881</v>
       </c>
       <c r="J4">
-        <v>8.23792628624583</v>
+        <v>8.71422166402275</v>
       </c>
       <c r="K4">
-        <v>13.34949814900441</v>
+        <v>13.07279233252801</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.70233443684</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.698750251438033</v>
       </c>
       <c r="N4">
-        <v>6.010524910204963</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.39841907534534</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.52723677247179</v>
+        <v>6.061594140410806</v>
       </c>
       <c r="Q4">
-        <v>13.17859740866241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.3437597144057</v>
+      </c>
+      <c r="R4">
+        <v>12.50629366553627</v>
+      </c>
+      <c r="S4">
+        <v>12.99666846673951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.87312654491784</v>
+        <v>15.76971489973435</v>
       </c>
       <c r="C5">
-        <v>12.14950852406205</v>
+        <v>12.05955310979558</v>
       </c>
       <c r="D5">
-        <v>4.338840358983095</v>
+        <v>4.36359911195219</v>
       </c>
       <c r="E5">
-        <v>8.107120939594804</v>
+        <v>7.974836628750825</v>
       </c>
       <c r="F5">
-        <v>16.14979364000996</v>
+        <v>15.93000782365337</v>
       </c>
       <c r="G5">
-        <v>19.72493571271684</v>
+        <v>18.63057107117267</v>
       </c>
       <c r="I5">
-        <v>2.508214649909525</v>
+        <v>2.567771470665916</v>
       </c>
       <c r="J5">
-        <v>8.237344783802151</v>
+        <v>8.707570524220131</v>
       </c>
       <c r="K5">
-        <v>13.37644366073176</v>
+        <v>13.1025291291479</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.74214661118566</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.719175475049567</v>
       </c>
       <c r="N5">
-        <v>5.991605228885438</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.25941568363285</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.54846378604362</v>
+        <v>6.041674761678763</v>
       </c>
       <c r="Q5">
-        <v>13.14343224836561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.20555043879744</v>
+      </c>
+      <c r="R5">
+        <v>12.52189172794506</v>
+      </c>
+      <c r="S5">
+        <v>12.96691651542958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.81135450204376</v>
+        <v>15.70990039489171</v>
       </c>
       <c r="C6">
-        <v>12.13865684530146</v>
+        <v>12.04551225097508</v>
       </c>
       <c r="D6">
-        <v>4.331795146830607</v>
+        <v>4.355859193803833</v>
       </c>
       <c r="E6">
-        <v>8.110185730917818</v>
+        <v>7.977937883624785</v>
       </c>
       <c r="F6">
-        <v>16.12332252510327</v>
+        <v>15.90495338797309</v>
       </c>
       <c r="G6">
-        <v>19.68446300123082</v>
+        <v>18.59195362452583</v>
       </c>
       <c r="I6">
-        <v>2.50272869394639</v>
+        <v>2.563424859167785</v>
       </c>
       <c r="J6">
-        <v>8.235342293590708</v>
+        <v>8.704542918052868</v>
       </c>
       <c r="K6">
-        <v>13.37624838023276</v>
+        <v>13.10285586720992</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.74435318696666</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.720394448318263</v>
       </c>
       <c r="N6">
-        <v>5.989368954692409</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.23487506311811</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.55302647067289</v>
+        <v>6.039283169089972</v>
       </c>
       <c r="Q6">
-        <v>13.13258656342907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.18111752523594</v>
+      </c>
+      <c r="R6">
+        <v>12.52559971642087</v>
+      </c>
+      <c r="S6">
+        <v>12.95693624829837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1887658550348</v>
+        <v>16.06856380270094</v>
       </c>
       <c r="C7">
-        <v>12.27581805620698</v>
+        <v>12.20261050422217</v>
       </c>
       <c r="D7">
-        <v>4.392365680471032</v>
+        <v>4.424130342769385</v>
       </c>
       <c r="E7">
-        <v>8.082507582784777</v>
+        <v>7.950723017513392</v>
       </c>
       <c r="F7">
-        <v>16.24738042324747</v>
+        <v>16.00596107202013</v>
       </c>
       <c r="G7">
-        <v>19.85566659655559</v>
+        <v>18.84403822056046</v>
       </c>
       <c r="I7">
-        <v>2.54939113776007</v>
+        <v>2.604890054335937</v>
       </c>
       <c r="J7">
-        <v>8.232563662226553</v>
+        <v>8.670309718416579</v>
       </c>
       <c r="K7">
-        <v>13.33684752737732</v>
+        <v>13.05611467627406</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.68696651170371</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.689270364071773</v>
       </c>
       <c r="N7">
-        <v>6.012612914351203</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.39305973607519</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.53029168922471</v>
+        <v>6.063542245169304</v>
       </c>
       <c r="Q7">
-        <v>13.16420196413112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.33636432879893</v>
+      </c>
+      <c r="R7">
+        <v>12.51063359264295</v>
+      </c>
+      <c r="S7">
+        <v>12.97307080475468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.7644963819066</v>
+        <v>17.57707326570955</v>
       </c>
       <c r="C8">
-        <v>12.84734914501477</v>
+        <v>12.87107548245456</v>
       </c>
       <c r="D8">
-        <v>4.646094744555517</v>
+        <v>4.70475756225636</v>
       </c>
       <c r="E8">
-        <v>7.967124658849952</v>
+        <v>7.836192296948768</v>
       </c>
       <c r="F8">
-        <v>16.82271511115575</v>
+        <v>16.50491654258929</v>
       </c>
       <c r="G8">
-        <v>20.65562798867219</v>
+        <v>19.79041902852381</v>
       </c>
       <c r="I8">
-        <v>2.746281636754315</v>
+        <v>2.77996875742075</v>
       </c>
       <c r="J8">
-        <v>8.233622028030236</v>
+        <v>8.610320463799519</v>
       </c>
       <c r="K8">
-        <v>13.18831971196447</v>
+        <v>12.88079837594731</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.46157433846001</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.61253258056361</v>
       </c>
       <c r="N8">
-        <v>6.118902294961126</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.06976365470935</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.43426775305227</v>
+        <v>6.174850599528056</v>
       </c>
       <c r="Q8">
-        <v>13.33246255958734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.00365542457546</v>
+      </c>
+      <c r="R8">
+        <v>12.44722928325891</v>
+      </c>
+      <c r="S8">
+        <v>13.08977771952673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.50693601459043</v>
+        <v>20.21836919976297</v>
       </c>
       <c r="C9">
-        <v>13.87615132153483</v>
+        <v>14.09474342555139</v>
       </c>
       <c r="D9">
-        <v>5.099595019402559</v>
+        <v>5.196988972079137</v>
       </c>
       <c r="E9">
-        <v>7.761688824621121</v>
+        <v>7.629583995447941</v>
       </c>
       <c r="F9">
-        <v>18.00771105460988</v>
+        <v>17.58001567547319</v>
       </c>
       <c r="G9">
-        <v>22.3077499814522</v>
+        <v>21.38005668722299</v>
       </c>
       <c r="I9">
-        <v>3.107243448027414</v>
+        <v>3.10173259458501</v>
       </c>
       <c r="J9">
-        <v>8.276183350462926</v>
+        <v>8.652052912436476</v>
       </c>
       <c r="K9">
-        <v>12.97038100234546</v>
+        <v>12.61238261774851</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.07545690109984</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.675202713815477</v>
       </c>
       <c r="N9">
-        <v>6.343807780583656</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.30378586162678</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.26634832167881</v>
+        <v>6.410818822025393</v>
       </c>
       <c r="Q9">
-        <v>13.74266771325698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.22356883533315</v>
+      </c>
+      <c r="R9">
+        <v>12.34106060166902</v>
+      </c>
+      <c r="S9">
+        <v>13.42262700018219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.29295986031876</v>
+        <v>21.91435190079451</v>
       </c>
       <c r="C10">
-        <v>14.60147346173916</v>
+        <v>14.92040201195724</v>
       </c>
       <c r="D10">
-        <v>5.40998966329996</v>
+        <v>5.546519749057997</v>
       </c>
       <c r="E10">
-        <v>7.620339781595151</v>
+        <v>7.489529889122724</v>
       </c>
       <c r="F10">
-        <v>18.87642908750256</v>
+        <v>18.30025902306807</v>
       </c>
       <c r="G10">
-        <v>23.50943801694708</v>
+        <v>23.02774656149075</v>
       </c>
       <c r="I10">
-        <v>3.360898017051992</v>
+        <v>3.326777386468844</v>
       </c>
       <c r="J10">
-        <v>8.32507016827484</v>
+        <v>8.476676406452995</v>
       </c>
       <c r="K10">
-        <v>12.83759545826224</v>
+        <v>12.40876361449086</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.78414573865644</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.808036033674824</v>
       </c>
       <c r="N10">
-        <v>6.521723670614858</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.2387449434545</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.16157534746453</v>
+        <v>6.596137742628612</v>
       </c>
       <c r="Q10">
-        <v>14.07166576093125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.12333283125528</v>
+      </c>
+      <c r="R10">
+        <v>12.29179503881904</v>
+      </c>
+      <c r="S10">
+        <v>13.63821890945787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.04060333477461</v>
+        <v>22.58445226277938</v>
       </c>
       <c r="C11">
-        <v>14.94982096886303</v>
+        <v>15.25900387379559</v>
       </c>
       <c r="D11">
-        <v>5.550736865323643</v>
+        <v>5.727387123433691</v>
       </c>
       <c r="E11">
-        <v>7.55512122747364</v>
+        <v>7.43040701950176</v>
       </c>
       <c r="F11">
-        <v>19.24556993943342</v>
+        <v>18.48887561428593</v>
       </c>
       <c r="G11">
-        <v>24.0081958216193</v>
+        <v>24.56609567442004</v>
       </c>
       <c r="I11">
-        <v>3.477533287032732</v>
+        <v>3.428860568102917</v>
       </c>
       <c r="J11">
-        <v>8.343489864915814</v>
+        <v>8.04580504969117</v>
       </c>
       <c r="K11">
-        <v>12.76372237639752</v>
+        <v>12.256986963127</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.61453191178219</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.830920123125678</v>
       </c>
       <c r="N11">
-        <v>6.60840804312735</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.66652967398836</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.12379005100715</v>
+        <v>6.684504641165208</v>
       </c>
       <c r="Q11">
-        <v>14.20785065837751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.51924503840404</v>
+      </c>
+      <c r="R11">
+        <v>12.29574757744596</v>
+      </c>
+      <c r="S11">
+        <v>13.63233300260422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.32640972220741</v>
+        <v>22.83686531566186</v>
       </c>
       <c r="C12">
-        <v>15.065374493511</v>
+        <v>15.36344377475985</v>
       </c>
       <c r="D12">
-        <v>5.600446492530674</v>
+        <v>5.794839121194056</v>
       </c>
       <c r="E12">
-        <v>7.532484362418054</v>
+        <v>7.410798958384819</v>
       </c>
       <c r="F12">
-        <v>19.39934335477584</v>
+        <v>18.56072463339114</v>
       </c>
       <c r="G12">
-        <v>24.22211388262037</v>
+        <v>25.27327645105169</v>
       </c>
       <c r="I12">
-        <v>3.519329384893648</v>
+        <v>3.463977697065914</v>
       </c>
       <c r="J12">
-        <v>8.355698861875243</v>
+        <v>7.855418425347277</v>
       </c>
       <c r="K12">
-        <v>12.7484549368751</v>
+        <v>12.20533781645381</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.55484532858899</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.846763441447465</v>
       </c>
       <c r="N12">
-        <v>6.639680404749805</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>13.82757210889421</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.10701108290184</v>
+        <v>6.7161581025146</v>
       </c>
       <c r="Q12">
-        <v>14.27174073238975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.66637941306485</v>
+      </c>
+      <c r="R12">
+        <v>12.29669129929555</v>
+      </c>
+      <c r="S12">
+        <v>13.63092467118262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.26701226867952</v>
+        <v>22.78484695655616</v>
       </c>
       <c r="C13">
-        <v>15.03758179591748</v>
+        <v>15.33818604149346</v>
       </c>
       <c r="D13">
-        <v>5.589229485813279</v>
+        <v>5.779672561066838</v>
       </c>
       <c r="E13">
-        <v>7.537690748037187</v>
+        <v>7.415284461506825</v>
       </c>
       <c r="F13">
-        <v>19.36901933607628</v>
+        <v>18.54865141907372</v>
       </c>
       <c r="G13">
-        <v>24.18106143525904</v>
+        <v>25.12168728995642</v>
       </c>
       <c r="I13">
-        <v>3.509884940115327</v>
+        <v>3.455790641567628</v>
       </c>
       <c r="J13">
-        <v>8.353947401962483</v>
+        <v>7.898246251459697</v>
       </c>
       <c r="K13">
-        <v>12.75399572430912</v>
+        <v>12.21883938644318</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.56914691641123</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.845494877535184</v>
       </c>
       <c r="N13">
-        <v>6.632561473301305</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.7935523606901</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.10996792624344</v>
+        <v>6.708964424387641</v>
       </c>
       <c r="Q13">
-        <v>14.26017363355402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.63543646695463</v>
+      </c>
+      <c r="R13">
+        <v>12.29565469384387</v>
+      </c>
+      <c r="S13">
+        <v>13.63390324326643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.06504681946312</v>
+        <v>22.60623285743632</v>
       </c>
       <c r="C14">
-        <v>14.95808866011289</v>
+        <v>15.26642292742575</v>
       </c>
       <c r="D14">
-        <v>5.55460901012371</v>
+        <v>5.732661637453226</v>
       </c>
       <c r="E14">
-        <v>7.55339914277323</v>
+        <v>7.428903727475439</v>
       </c>
       <c r="F14">
-        <v>19.25941434042362</v>
+        <v>18.49625350430347</v>
       </c>
       <c r="G14">
-        <v>24.02794013309037</v>
+        <v>24.62447956458425</v>
       </c>
       <c r="I14">
-        <v>3.480776904249666</v>
+        <v>3.431476978496277</v>
       </c>
       <c r="J14">
-        <v>8.344866997351822</v>
+        <v>8.03098560038972</v>
       </c>
       <c r="K14">
-        <v>12.76342143129579</v>
+        <v>12.25375565002522</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.61024732651352</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.833133765513067</v>
       </c>
       <c r="N14">
-        <v>6.610816808973914</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.68006628298558</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.12213123999879</v>
+        <v>6.686948087681125</v>
       </c>
       <c r="Q14">
-        <v>14.2140402621076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.53167422676502</v>
+      </c>
+      <c r="R14">
+        <v>12.2954706531406</v>
+      </c>
+      <c r="S14">
+        <v>13.63336880580342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.93674380994438</v>
+        <v>22.49168990970992</v>
       </c>
       <c r="C15">
-        <v>14.91511647037281</v>
+        <v>15.2276451038637</v>
       </c>
       <c r="D15">
-        <v>5.534386610649841</v>
+        <v>5.705211702612447</v>
       </c>
       <c r="E15">
-        <v>7.562383718666442</v>
+        <v>7.436785278324505</v>
       </c>
       <c r="F15">
-        <v>19.18671149002407</v>
+        <v>18.45681443986879</v>
       </c>
       <c r="G15">
-        <v>23.92413272892692</v>
+        <v>24.32260927450089</v>
       </c>
       <c r="I15">
-        <v>3.463901661301672</v>
+        <v>3.417900790729452</v>
       </c>
       <c r="J15">
-        <v>8.337601275730542</v>
+        <v>8.107194318869984</v>
       </c>
       <c r="K15">
-        <v>12.76481741775713</v>
+        <v>12.27022745321797</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.63239394185108</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.821253097755611</v>
       </c>
       <c r="N15">
-        <v>6.598272151844582</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.60908076178785</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.13088889590819</v>
+        <v>6.674212781895266</v>
       </c>
       <c r="Q15">
-        <v>14.18148181044517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.46640549429591</v>
+      </c>
+      <c r="R15">
+        <v>12.2970978956882</v>
+      </c>
+      <c r="S15">
+        <v>13.62729788486859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.21117758226626</v>
+        <v>21.83692190342959</v>
       </c>
       <c r="C16">
-        <v>14.62881152979209</v>
+        <v>14.95030445651857</v>
       </c>
       <c r="D16">
-        <v>5.410000039434861</v>
+        <v>5.54443935023579</v>
       </c>
       <c r="E16">
-        <v>7.618893889145956</v>
+        <v>7.488300010471607</v>
       </c>
       <c r="F16">
-        <v>18.80486611469986</v>
+        <v>18.23858095727008</v>
       </c>
       <c r="G16">
-        <v>23.3914327722191</v>
+        <v>22.85371552091526</v>
       </c>
       <c r="I16">
-        <v>3.36058141956352</v>
+        <v>3.330436870809427</v>
       </c>
       <c r="J16">
-        <v>8.308786832887321</v>
+        <v>8.486406825281009</v>
       </c>
       <c r="K16">
-        <v>12.80433596884761</v>
+        <v>12.38190095922608</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.77110806255475</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.773444049645849</v>
       </c>
       <c r="N16">
-        <v>6.522351682858337</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.20158668625517</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.17431068514536</v>
+        <v>6.596690170222229</v>
       </c>
       <c r="Q16">
-        <v>14.02519751979955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.08798643235354</v>
+      </c>
+      <c r="R16">
+        <v>12.30311860668916</v>
+      </c>
+      <c r="S16">
+        <v>13.59986912253837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.7538426431705</v>
+        <v>21.41568598426193</v>
       </c>
       <c r="C17">
-        <v>14.45071472722188</v>
+        <v>14.76587696934008</v>
       </c>
       <c r="D17">
-        <v>5.332255957685619</v>
+        <v>5.448963692574907</v>
       </c>
       <c r="E17">
-        <v>7.65418005331544</v>
+        <v>7.521784207336328</v>
       </c>
       <c r="F17">
-        <v>18.57053334970601</v>
+        <v>18.0808738361424</v>
       </c>
       <c r="G17">
-        <v>23.06418995178211</v>
+        <v>22.12696717041057</v>
       </c>
       <c r="I17">
-        <v>3.296741203382215</v>
+        <v>3.275753199919187</v>
       </c>
       <c r="J17">
-        <v>8.292379862711684</v>
+        <v>8.651652809483759</v>
       </c>
       <c r="K17">
-        <v>12.83089716013589</v>
+        <v>12.44224655858736</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.85144761485432</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.740659210773022</v>
       </c>
       <c r="N17">
-        <v>6.476338807629578</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.94527861318277</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.20189751475923</v>
+        <v>6.549307634312934</v>
       </c>
       <c r="Q17">
-        <v>13.93131168969734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.84619090828098</v>
+      </c>
+      <c r="R17">
+        <v>12.31138120832758</v>
+      </c>
+      <c r="S17">
+        <v>13.56549411996814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.49626556458388</v>
+        <v>21.17620367828864</v>
       </c>
       <c r="C18">
-        <v>14.33187723545649</v>
+        <v>14.63810653049395</v>
       </c>
       <c r="D18">
-        <v>5.284135127622647</v>
+        <v>5.39226761762513</v>
       </c>
       <c r="E18">
-        <v>7.6764410622166</v>
+        <v>7.543236315477333</v>
       </c>
       <c r="F18">
-        <v>18.45040791026682</v>
+        <v>17.99627297068634</v>
       </c>
       <c r="G18">
-        <v>22.90228143678</v>
+        <v>21.79930186474024</v>
       </c>
       <c r="I18">
-        <v>3.256727054240448</v>
+        <v>3.239669642511065</v>
       </c>
       <c r="J18">
-        <v>8.288015663205655</v>
+        <v>8.724268915820737</v>
       </c>
       <c r="K18">
-        <v>12.85854555523879</v>
+        <v>12.48511353336135</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.90336437670848</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.730576262200563</v>
       </c>
       <c r="N18">
-        <v>6.448168046412066</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.79823921826043</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.21507497696538</v>
+        <v>6.520196457745059</v>
       </c>
       <c r="Q18">
-        <v>13.88958995054876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.70627275537329</v>
+      </c>
+      <c r="R18">
+        <v>12.31439481136549</v>
+      </c>
+      <c r="S18">
+        <v>13.55097327469494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.40059882124094</v>
+        <v>21.08616107223017</v>
       </c>
       <c r="C19">
-        <v>14.30343569896208</v>
+        <v>14.60661111754831</v>
       </c>
       <c r="D19">
-        <v>5.269971800771321</v>
+        <v>5.375521689459544</v>
       </c>
       <c r="E19">
-        <v>7.682675051677519</v>
+        <v>7.549383456999971</v>
       </c>
       <c r="F19">
-        <v>18.398462124336</v>
+        <v>17.95487982158703</v>
       </c>
       <c r="G19">
-        <v>22.82710413156618</v>
+        <v>21.67836996810487</v>
       </c>
       <c r="I19">
-        <v>3.24547831828187</v>
+        <v>3.230550018571352</v>
       </c>
       <c r="J19">
-        <v>8.283059079359056</v>
+        <v>8.740855304112593</v>
       </c>
       <c r="K19">
-        <v>12.85913999437103</v>
+        <v>12.49069053814324</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.91484829277938</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.719537454223229</v>
       </c>
       <c r="N19">
-        <v>6.440144648955065</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.7459684002641</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.22193556802195</v>
+        <v>6.511849000516129</v>
       </c>
       <c r="Q19">
-        <v>13.86669353916548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.65619821495363</v>
+      </c>
+      <c r="R19">
+        <v>12.31823267385008</v>
+      </c>
+      <c r="S19">
+        <v>13.53618683175411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.80376671103383</v>
+        <v>21.46205125311924</v>
       </c>
       <c r="C20">
-        <v>14.46855615896541</v>
+        <v>14.78477226799539</v>
       </c>
       <c r="D20">
-        <v>5.340361856090367</v>
+        <v>5.458780111658953</v>
       </c>
       <c r="E20">
-        <v>7.650536693801942</v>
+        <v>7.518278145063666</v>
       </c>
       <c r="F20">
-        <v>18.596618920737</v>
+        <v>18.09969513913225</v>
       </c>
       <c r="G20">
-        <v>23.1010939012918</v>
+        <v>22.19985404198258</v>
       </c>
       <c r="I20">
-        <v>3.303305659635887</v>
+        <v>3.281277924912952</v>
       </c>
       <c r="J20">
-        <v>8.29444016802162</v>
+        <v>8.63713452152594</v>
       </c>
       <c r="K20">
-        <v>12.82888987882018</v>
+        <v>12.43697859836433</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.84366013960234</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.745021769179941</v>
       </c>
       <c r="N20">
-        <v>6.481065315791841</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>12.97301414776972</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.19868527307834</v>
+        <v>6.554192207632831</v>
       </c>
       <c r="Q20">
-        <v>13.94213217751394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.87250902732029</v>
+      </c>
+      <c r="R20">
+        <v>12.31007372809842</v>
+      </c>
+      <c r="S20">
+        <v>13.57069586265943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.11411606160335</v>
+        <v>22.63484282447912</v>
       </c>
       <c r="C21">
-        <v>14.99816526368321</v>
+        <v>15.28600410860984</v>
       </c>
       <c r="D21">
-        <v>5.567878995029991</v>
+        <v>5.75775459925265</v>
       </c>
       <c r="E21">
-        <v>7.546836760779605</v>
+        <v>7.425047327955108</v>
       </c>
       <c r="F21">
-        <v>19.27594633018143</v>
+        <v>18.45593189893163</v>
       </c>
       <c r="G21">
-        <v>24.04480095524938</v>
+        <v>25.04029720845099</v>
       </c>
       <c r="I21">
-        <v>3.492176131400981</v>
+        <v>3.44135791219324</v>
       </c>
       <c r="J21">
-        <v>8.342412524718078</v>
+        <v>7.874389928813412</v>
       </c>
       <c r="K21">
-        <v>12.7476761717855</v>
+        <v>12.21574606926321</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.58071143468137</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.81079407145682</v>
       </c>
       <c r="N21">
-        <v>6.619276680564165</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>13.7106460333924</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.12207175037332</v>
+        <v>6.694904057795922</v>
       </c>
       <c r="Q21">
-        <v>14.2149808119799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.55337724633224</v>
+      </c>
+      <c r="R21">
+        <v>12.30479322245051</v>
+      </c>
+      <c r="S21">
+        <v>13.58947347663901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.94396066107942</v>
+        <v>23.37376240616747</v>
       </c>
       <c r="C22">
-        <v>15.31491816870175</v>
+        <v>15.57686928867846</v>
       </c>
       <c r="D22">
-        <v>5.707911070022872</v>
+        <v>5.946014020780154</v>
       </c>
       <c r="E22">
-        <v>7.483569227903295</v>
+        <v>7.370446626759536</v>
       </c>
       <c r="F22">
-        <v>19.73904920313533</v>
+        <v>18.69548014330983</v>
       </c>
       <c r="G22">
-        <v>24.69513191654059</v>
+        <v>27.00971691695457</v>
       </c>
       <c r="I22">
-        <v>3.610407773327255</v>
+        <v>3.539849035470533</v>
       </c>
       <c r="J22">
-        <v>8.384483570246411</v>
+        <v>7.401177458017731</v>
       </c>
       <c r="K22">
-        <v>12.71891849975598</v>
+        <v>12.08378004075341</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.42018347521166</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.877359198221599</v>
       </c>
       <c r="N22">
-        <v>6.708729953734545</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.17570633949391</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.0707089102191</v>
+        <v>6.785583620911336</v>
       </c>
       <c r="Q22">
-        <v>14.4157243209938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.98067475933976</v>
+      </c>
+      <c r="R22">
+        <v>12.3036374859378</v>
+      </c>
+      <c r="S22">
+        <v>13.61009989324261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.51713988892148</v>
+        <v>23.00495029182351</v>
       </c>
       <c r="C23">
-        <v>15.12662969278837</v>
+        <v>15.41510703815149</v>
       </c>
       <c r="D23">
-        <v>5.629926732226125</v>
+        <v>5.836441191289845</v>
       </c>
       <c r="E23">
-        <v>7.519487652932326</v>
+        <v>7.39993616954542</v>
       </c>
       <c r="F23">
-        <v>19.51074611462738</v>
+        <v>18.61541411105607</v>
       </c>
       <c r="G23">
-        <v>24.38193152197524</v>
+        <v>25.77955734110528</v>
       </c>
       <c r="I23">
-        <v>3.544401738229087</v>
+        <v>3.483863627012988</v>
       </c>
       <c r="J23">
-        <v>8.367774895985351</v>
+        <v>7.728780401005631</v>
       </c>
       <c r="K23">
-        <v>12.74913484504872</v>
+        <v>12.17997414939063</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.52141712073193</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.865037597917176</v>
       </c>
       <c r="N23">
-        <v>6.658334924824367</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>13.93278384367255</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.09354743387271</v>
+        <v>6.734973428666599</v>
       </c>
       <c r="Q23">
-        <v>14.32310261891759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.76210875096493</v>
+      </c>
+      <c r="R23">
+        <v>12.29499009359025</v>
+      </c>
+      <c r="S23">
+        <v>13.63672984172258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.80208534550608</v>
+        <v>21.46208151814115</v>
       </c>
       <c r="C24">
-        <v>14.42790136289641</v>
+        <v>14.74172716113553</v>
       </c>
       <c r="D24">
-        <v>5.330648874155031</v>
+        <v>5.448187370758974</v>
       </c>
       <c r="E24">
-        <v>7.655868213959113</v>
+        <v>7.523205747926133</v>
       </c>
       <c r="F24">
-        <v>18.61559133635487</v>
+        <v>18.12202115674233</v>
       </c>
       <c r="G24">
-        <v>23.13986562402877</v>
+        <v>22.22335903614048</v>
       </c>
       <c r="I24">
-        <v>3.294676707135311</v>
+        <v>3.270965304944328</v>
       </c>
       <c r="J24">
-        <v>8.303256867764341</v>
+        <v>8.652738456854971</v>
       </c>
       <c r="K24">
-        <v>12.8542650243101</v>
+        <v>12.46258768106319</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.8628412905088</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.763787069547197</v>
       </c>
       <c r="N24">
-        <v>6.474890066225648</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>12.96615737375399</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.19368089279205</v>
+        <v>6.547902547688464</v>
       </c>
       <c r="Q24">
-        <v>13.96157197648482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.86630501741644</v>
+      </c>
+      <c r="R24">
+        <v>12.30359218127652</v>
+      </c>
+      <c r="S24">
+        <v>13.59249147628694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.78245551276379</v>
+        <v>19.5259964843966</v>
       </c>
       <c r="C25">
-        <v>13.63740865560384</v>
+        <v>13.81556210619515</v>
       </c>
       <c r="D25">
-        <v>4.987291142531274</v>
+        <v>5.071307313750424</v>
       </c>
       <c r="E25">
-        <v>7.811796814310079</v>
+        <v>7.679780370519193</v>
       </c>
       <c r="F25">
-        <v>17.65408632851256</v>
+        <v>17.27340419340336</v>
       </c>
       <c r="G25">
-        <v>21.8026668207745</v>
+        <v>20.76284065396082</v>
       </c>
       <c r="I25">
-        <v>3.016141469147049</v>
+        <v>3.023271502875139</v>
       </c>
       <c r="J25">
-        <v>8.251654275523347</v>
+        <v>8.683532702303394</v>
       </c>
       <c r="K25">
-        <v>12.99994462564617</v>
+        <v>12.66423256225432</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.16526445119948</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.624296836627914</v>
       </c>
       <c r="N25">
-        <v>6.284895876405057</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>11.97567669980675</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.31478180060537</v>
+        <v>6.349131270336499</v>
       </c>
       <c r="Q25">
-        <v>13.60145234530749</v>
+        <v>11.90206093520398</v>
+      </c>
+      <c r="R25">
+        <v>12.37116912759122</v>
+      </c>
+      <c r="S25">
+        <v>13.31629524844521</v>
       </c>
     </row>
   </sheetData>
